--- a/Project18/Лист Microsoft Excel.xlsx
+++ b/Project18/Лист Microsoft Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Desktop\CPP\Project18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7687BA3-C944-49C9-BB76-969B6F47AA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F843AB-06FF-4574-B7A0-EBC68F4BFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11988" yWindow="2484" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -43,6 +43,54 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>если поле 3х3</t>
+  </si>
+  <si>
+    <t>если первый ход пк</t>
+  </si>
+  <si>
+    <t>если одиночная игра</t>
+  </si>
+  <si>
+    <t>если победил крестик</t>
+  </si>
+  <si>
+    <t>если победил нолик</t>
+  </si>
+  <si>
+    <t>если ничья</t>
+  </si>
+  <si>
+    <t>шаг пк</t>
+  </si>
+  <si>
+    <t>если поле 4х4</t>
+  </si>
+  <si>
+    <t>если поле 5х5</t>
+  </si>
+  <si>
+    <t>шаг игрока</t>
+  </si>
+  <si>
+    <t>если первый ход игрока</t>
+  </si>
+  <si>
+    <t>если два игрока</t>
+  </si>
+  <si>
+    <t>шаг игрока1</t>
+  </si>
+  <si>
+    <t>шаг игрока2</t>
+  </si>
+  <si>
+    <t>если 0</t>
+  </si>
+  <si>
+    <t>выход в меню</t>
   </si>
 </sst>
 </file>
@@ -586,18 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="50.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="50.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -636,8 +688,11 @@
       <c r="N1" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -687,8 +742,11 @@
         <f>D4</f>
         <v>x</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -711,8 +769,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -735,8 +796,11 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -751,8 +815,11 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -767,8 +834,11 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -783,8 +853,11 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -849,8 +922,11 @@
       <c r="V8" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -931,8 +1007,11 @@
         <f>E12</f>
         <v>x</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -957,8 +1036,11 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -983,8 +1065,11 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -1009,8 +1094,11 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1025,9 +1113,21 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1091,8 +1191,11 @@
       <c r="W16" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -1171,8 +1274,11 @@
         <f>F19</f>
         <v>x</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -1191,8 +1297,11 @@
       <c r="F18" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -1241,8 +1350,11 @@
       <c r="R19" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -1301,8 +1413,11 @@
         <f>F21</f>
         <v>x</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1321,8 +1436,400 @@
       <c r="F21" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="AB21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AC22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AB35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AB54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AB65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AB68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AC78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AD80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AD86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AB87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="28:30" x14ac:dyDescent="0.3">
+      <c r="AC96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AC97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AC99" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project18/Лист Microsoft Excel.xlsx
+++ b/Project18/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\Desktop\CPP\Project18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F843AB-06FF-4574-B7A0-EBC68F4BFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F4B4B-B094-4EBA-B9C8-1F31CD2C8390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="2484" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11736" yWindow="3348" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,9 +700,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
@@ -712,35 +712,35 @@
       </c>
       <c r="G2" s="7" t="str">
         <f>C2</f>
-        <v>o</v>
-      </c>
-      <c r="H2" s="8" t="str">
+        <v>x</v>
+      </c>
+      <c r="H2" s="8">
         <f>D2</f>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>B3</f>
-        <v>o</v>
-      </c>
-      <c r="J2" s="10" t="str">
+        <v>x</v>
+      </c>
+      <c r="J2" s="10">
         <f>C3</f>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7" t="str">
         <f>D3</f>
-        <v>o</v>
-      </c>
-      <c r="L2" s="8" t="str">
+        <v>x</v>
+      </c>
+      <c r="L2" s="8">
         <f>B4</f>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="str">
         <f>C4</f>
-        <v>o</v>
-      </c>
-      <c r="N2" s="6" t="str">
+        <v>x</v>
+      </c>
+      <c r="N2" s="6">
         <f>D4</f>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="s">
         <v>5</v>
@@ -751,13 +751,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -777,13 +777,13 @@
       <c r="A4" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="11"/>
